--- a/artfynd/A 3345-2022.xlsx
+++ b/artfynd/A 3345-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1548,6 +1548,722 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112171795</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>756378.1091670797</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7212049.955989202</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112171785</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78542</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>229748</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gytterlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Protopannaria pezizoides</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>756412.4227988988</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7211953.63443999</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>på berg</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112171812</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78611</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>756485.3358962236</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7212023.397891168</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112171810</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>756485.5908420115</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7212020.437326429</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112171779</v>
+      </c>
+      <c r="B13" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>756291.0224138719</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7211892.055915679</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112171814</v>
+      </c>
+      <c r="B14" t="n">
+        <v>89351</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>112</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>756486.3469059409</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7212041.380007128</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3345-2022.xlsx
+++ b/artfynd/A 3345-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112171795</v>
+        <v>112171787</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>86223</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1566,21 +1566,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>756378.1091670797</v>
+        <v>756408.3567998749</v>
       </c>
       <c r="R9" t="n">
-        <v>7212049.955989202</v>
+        <v>7211956.266983526</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112171785</v>
+        <v>112171813</v>
       </c>
       <c r="B10" t="n">
-        <v>78542</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1678,25 +1678,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>229748</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1706,10 +1706,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>756412.4227988988</v>
+        <v>756485.3358962236</v>
       </c>
       <c r="R10" t="n">
-        <v>7211953.63443999</v>
+        <v>7212023.397891168</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1754,11 +1754,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>på berg</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1767,6 +1762,21 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1787,10 +1797,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112171812</v>
+        <v>112171798</v>
       </c>
       <c r="B11" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1799,25 +1809,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1827,10 +1837,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>756485.3358962236</v>
+        <v>756371.159627417</v>
       </c>
       <c r="R11" t="n">
-        <v>7212023.397891168</v>
+        <v>7212115.823547728</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1883,21 +1893,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1918,10 +1913,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112171810</v>
+        <v>112171776</v>
       </c>
       <c r="B12" t="n">
-        <v>90332</v>
+        <v>85313</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1930,25 +1925,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>3739</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1958,10 +1953,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>756485.5908420115</v>
+        <v>756261.4263966865</v>
       </c>
       <c r="R12" t="n">
-        <v>7212020.437326429</v>
+        <v>7211953.421827843</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2034,10 +2029,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112171779</v>
+        <v>112171812</v>
       </c>
       <c r="B13" t="n">
-        <v>101703</v>
+        <v>78611</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2050,21 +2045,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222412</v>
+        <v>6463</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2074,10 +2069,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>756291.0224138719</v>
+        <v>756485.3358962236</v>
       </c>
       <c r="R13" t="n">
-        <v>7211892.055915679</v>
+        <v>7212023.397891168</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2130,6 +2125,21 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2150,10 +2160,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112171814</v>
+        <v>112171810</v>
       </c>
       <c r="B14" t="n">
-        <v>89351</v>
+        <v>90332</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2162,25 +2172,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>112</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2190,10 +2200,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>756486.3469059409</v>
+        <v>756485.5908420115</v>
       </c>
       <c r="R14" t="n">
-        <v>7212041.380007128</v>
+        <v>7212020.437326429</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2259,6 +2269,969 @@
         </is>
       </c>
       <c r="AY14" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112171795</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>756378.1091670797</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7212049.955989202</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112171806</v>
+      </c>
+      <c r="B16" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>756477.4088632937</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7212031.236738618</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112171792</v>
+      </c>
+      <c r="B17" t="n">
+        <v>85266</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>249228</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Barrfagerspindling</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cortinarius piceae</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>756394.8616011182</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7211974.278858166</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112171779</v>
+      </c>
+      <c r="B18" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>756291.0224138719</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7211892.055915679</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112171785</v>
+      </c>
+      <c r="B19" t="n">
+        <v>78542</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>229748</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gytterlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Protopannaria pezizoides</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>756412.4227988988</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7211953.63443999</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>på berg</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112171801</v>
+      </c>
+      <c r="B20" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>756447.9182799895</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7212051.705217791</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112171814</v>
+      </c>
+      <c r="B21" t="n">
+        <v>89351</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>112</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>756486.3469059409</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7212041.380007128</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112171788</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Mångberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>756401.2672290787</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7211954.378437345</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
         <is>
           <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>

--- a/artfynd/A 3345-2022.xlsx
+++ b/artfynd/A 3345-2022.xlsx
@@ -1550,10 +1550,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112171787</v>
+        <v>112171812</v>
       </c>
       <c r="B9" t="n">
-        <v>86223</v>
+        <v>78611</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1562,25 +1562,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4412</v>
+        <v>6463</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>756408.3567998749</v>
+        <v>756485</v>
       </c>
       <c r="R9" t="n">
-        <v>7211956.266983526</v>
+        <v>7212023</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1623,21 +1623,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1646,6 +1636,21 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1666,10 +1671,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112171813</v>
+        <v>112171779</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>101703</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1678,25 +1683,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1706,10 +1711,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>756485.3358962236</v>
+        <v>756291</v>
       </c>
       <c r="R10" t="n">
-        <v>7212023.397891168</v>
+        <v>7211892</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1739,21 +1744,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1762,21 +1757,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1797,7 +1777,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112171798</v>
+        <v>112171801</v>
       </c>
       <c r="B11" t="n">
         <v>78578</v>
@@ -1837,10 +1817,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>756371.159627417</v>
+        <v>756448</v>
       </c>
       <c r="R11" t="n">
-        <v>7212115.823547728</v>
+        <v>7212052</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1870,19 +1850,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1913,10 +1883,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112171776</v>
+        <v>112171787</v>
       </c>
       <c r="B12" t="n">
-        <v>85313</v>
+        <v>86223</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1929,21 +1899,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3739</v>
+        <v>4412</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1953,10 +1923,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>756261.4263966865</v>
+        <v>756408</v>
       </c>
       <c r="R12" t="n">
-        <v>7211953.421827843</v>
+        <v>7211956</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1986,19 +1956,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2029,10 +1989,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112171812</v>
+        <v>112171806</v>
       </c>
       <c r="B13" t="n">
-        <v>78611</v>
+        <v>86223</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2041,25 +2001,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6463</v>
+        <v>4412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2069,10 +2029,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>756485.3358962236</v>
+        <v>756477</v>
       </c>
       <c r="R13" t="n">
-        <v>7212023.397891168</v>
+        <v>7212031</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2102,21 +2062,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2125,21 +2075,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2160,10 +2095,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112171810</v>
+        <v>112171795</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2172,25 +2107,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2200,10 +2135,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>756485.5908420115</v>
+        <v>756378</v>
       </c>
       <c r="R14" t="n">
-        <v>7212020.437326429</v>
+        <v>7212050</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2233,19 +2168,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2276,10 +2201,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112171795</v>
+        <v>112171798</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2292,21 +2217,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2316,10 +2241,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>756378.1091670797</v>
+        <v>756371</v>
       </c>
       <c r="R15" t="n">
-        <v>7212049.955989202</v>
+        <v>7212116</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2349,19 +2274,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2392,10 +2307,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112171806</v>
+        <v>112171788</v>
       </c>
       <c r="B16" t="n">
-        <v>86223</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2408,21 +2323,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2432,10 +2347,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>756477.4088632937</v>
+        <v>756401</v>
       </c>
       <c r="R16" t="n">
-        <v>7212031.236738618</v>
+        <v>7211954</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2465,21 +2380,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2488,6 +2393,21 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2508,10 +2428,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112171792</v>
+        <v>112171785</v>
       </c>
       <c r="B17" t="n">
-        <v>85266</v>
+        <v>78542</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2524,21 +2444,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>249228</v>
+        <v>229748</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2548,10 +2468,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>756394.8616011182</v>
+        <v>756412</v>
       </c>
       <c r="R17" t="n">
-        <v>7211974.278858166</v>
+        <v>7211954</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2581,19 +2501,14 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>på berg</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2624,10 +2539,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112171779</v>
+        <v>112171813</v>
       </c>
       <c r="B18" t="n">
-        <v>101703</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2636,25 +2551,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222412</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2664,10 +2579,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>756291.0224138719</v>
+        <v>756485</v>
       </c>
       <c r="R18" t="n">
-        <v>7211892.055915679</v>
+        <v>7212023</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2697,21 +2612,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
@@ -2720,6 +2625,21 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2740,10 +2660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112171785</v>
+        <v>112171814</v>
       </c>
       <c r="B19" t="n">
-        <v>78542</v>
+        <v>89351</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2752,25 +2672,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>229748</v>
+        <v>112</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2780,10 +2700,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>756412.4227988988</v>
+        <v>756486</v>
       </c>
       <c r="R19" t="n">
-        <v>7211953.63443999</v>
+        <v>7212041</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2813,26 +2733,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>på berg</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2841,6 +2746,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2861,10 +2781,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112171801</v>
+        <v>112171776</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>85313</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2877,21 +2797,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>3739</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2901,10 +2821,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>756447.9182799895</v>
+        <v>756261</v>
       </c>
       <c r="R20" t="n">
-        <v>7212051.705217791</v>
+        <v>7211953</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2934,19 +2854,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2977,10 +2887,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112171814</v>
+        <v>112171810</v>
       </c>
       <c r="B21" t="n">
-        <v>89351</v>
+        <v>90332</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2989,25 +2899,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>112</v>
+        <v>4769</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3017,10 +2927,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>756486.3469059409</v>
+        <v>756486</v>
       </c>
       <c r="R21" t="n">
-        <v>7212041.380007128</v>
+        <v>7212020</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3050,21 +2960,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -3073,21 +2973,6 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3108,10 +2993,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112171788</v>
+        <v>112171792</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>85266</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3120,25 +3005,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>249228</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3148,10 +3033,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>756401.2672290787</v>
+        <v>756395</v>
       </c>
       <c r="R22" t="n">
-        <v>7211954.378437345</v>
+        <v>7211974</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3181,21 +3066,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
@@ -3204,21 +3079,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">

--- a/artfynd/A 3345-2022.xlsx
+++ b/artfynd/A 3345-2022.xlsx
@@ -1550,10 +1550,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112171812</v>
+        <v>112171801</v>
       </c>
       <c r="B9" t="n">
-        <v>78611</v>
+        <v>78699</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1562,25 +1562,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>756485</v>
+        <v>756448</v>
       </c>
       <c r="R9" t="n">
-        <v>7212023</v>
+        <v>7212052</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1636,21 +1636,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1671,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112171779</v>
+        <v>112171776</v>
       </c>
       <c r="B10" t="n">
-        <v>101703</v>
+        <v>85434</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1683,25 +1668,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222412</v>
+        <v>3739</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1711,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>756291</v>
+        <v>756261</v>
       </c>
       <c r="R10" t="n">
-        <v>7211892</v>
+        <v>7211953</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1777,10 +1762,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112171801</v>
+        <v>112171779</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>102166</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1789,25 +1774,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>222412</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1817,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>756448</v>
+        <v>756291</v>
       </c>
       <c r="R11" t="n">
-        <v>7212052</v>
+        <v>7211892</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1883,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112171787</v>
+        <v>112171814</v>
       </c>
       <c r="B12" t="n">
-        <v>86223</v>
+        <v>89485</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1899,21 +1884,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4412</v>
+        <v>112</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1923,10 +1908,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>756408</v>
+        <v>756486</v>
       </c>
       <c r="R12" t="n">
-        <v>7211956</v>
+        <v>7212041</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1969,6 +1954,21 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1989,10 +1989,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112171806</v>
+        <v>112171812</v>
       </c>
       <c r="B13" t="n">
-        <v>86223</v>
+        <v>78732</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2001,25 +2001,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4412</v>
+        <v>6463</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>756477</v>
+        <v>756485</v>
       </c>
       <c r="R13" t="n">
-        <v>7212031</v>
+        <v>7212023</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2075,6 +2075,21 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2095,10 +2110,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112171795</v>
+        <v>112171806</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>86357</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2111,21 +2126,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2135,10 +2150,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>756378</v>
+        <v>756477</v>
       </c>
       <c r="R14" t="n">
-        <v>7212050</v>
+        <v>7212031</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2201,10 +2216,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112171798</v>
+        <v>112171795</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>77636</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2217,21 +2232,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2241,10 +2256,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>756371</v>
+        <v>756378</v>
       </c>
       <c r="R15" t="n">
-        <v>7212116</v>
+        <v>7212050</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2307,10 +2322,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112171788</v>
+        <v>112171785</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>78663</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2319,25 +2334,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>229748</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2347,7 +2362,7 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>756401</v>
+        <v>756412</v>
       </c>
       <c r="R16" t="n">
         <v>7211954</v>
@@ -2385,6 +2400,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>på berg</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2393,21 +2413,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2428,10 +2433,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112171785</v>
+        <v>112171792</v>
       </c>
       <c r="B17" t="n">
-        <v>78542</v>
+        <v>85387</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2444,21 +2449,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>229748</v>
+        <v>249228</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2468,10 +2473,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>756412</v>
+        <v>756395</v>
       </c>
       <c r="R17" t="n">
-        <v>7211954</v>
+        <v>7211974</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2504,11 +2509,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>på berg</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2539,10 +2539,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112171813</v>
+        <v>112171798</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>756485</v>
+        <v>756371</v>
       </c>
       <c r="R18" t="n">
-        <v>7212023</v>
+        <v>7212116</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2625,21 +2625,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2660,10 +2645,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112171814</v>
+        <v>112171813</v>
       </c>
       <c r="B19" t="n">
-        <v>89351</v>
+        <v>78699</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2676,21 +2661,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>112</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2700,10 +2685,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>756486</v>
+        <v>756485</v>
       </c>
       <c r="R19" t="n">
-        <v>7212041</v>
+        <v>7212023</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2749,17 +2734,17 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2781,10 +2766,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112171776</v>
+        <v>112171788</v>
       </c>
       <c r="B20" t="n">
-        <v>85313</v>
+        <v>78699</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2797,21 +2782,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3739</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2821,10 +2806,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>756261</v>
+        <v>756401</v>
       </c>
       <c r="R20" t="n">
-        <v>7211953</v>
+        <v>7211954</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2867,6 +2852,21 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2887,10 +2887,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112171810</v>
+        <v>112171787</v>
       </c>
       <c r="B21" t="n">
-        <v>90332</v>
+        <v>86357</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2899,25 +2899,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>756486</v>
+        <v>756408</v>
       </c>
       <c r="R21" t="n">
-        <v>7212020</v>
+        <v>7211956</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112171792</v>
+        <v>112171810</v>
       </c>
       <c r="B22" t="n">
-        <v>85266</v>
+        <v>90466</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3009,21 +3009,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>249228</v>
+        <v>4769</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>756395</v>
+        <v>756486</v>
       </c>
       <c r="R22" t="n">
-        <v>7211974</v>
+        <v>7212020</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 3345-2022.xlsx
+++ b/artfynd/A 3345-2022.xlsx
@@ -1550,10 +1550,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112171801</v>
+        <v>112171810</v>
       </c>
       <c r="B9" t="n">
-        <v>78699</v>
+        <v>90480</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1562,25 +1562,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>756448</v>
+        <v>756486</v>
       </c>
       <c r="R9" t="n">
-        <v>7212052</v>
+        <v>7212020</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112171776</v>
+        <v>112171787</v>
       </c>
       <c r="B10" t="n">
-        <v>85434</v>
+        <v>86371</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3739</v>
+        <v>4412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>756261</v>
+        <v>756408</v>
       </c>
       <c r="R10" t="n">
-        <v>7211953</v>
+        <v>7211956</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112171779</v>
+        <v>112171806</v>
       </c>
       <c r="B11" t="n">
-        <v>102166</v>
+        <v>86371</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1774,25 +1774,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222412</v>
+        <v>4412</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1802,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>756291</v>
+        <v>756477</v>
       </c>
       <c r="R11" t="n">
-        <v>7211892</v>
+        <v>7212031</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112171814</v>
+        <v>112171785</v>
       </c>
       <c r="B12" t="n">
-        <v>89485</v>
+        <v>78677</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1880,25 +1880,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>229748</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>756486</v>
+        <v>756412</v>
       </c>
       <c r="R12" t="n">
-        <v>7212041</v>
+        <v>7211954</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1946,6 +1946,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>på berg</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1954,21 +1959,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1989,10 +1979,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112171812</v>
+        <v>112171795</v>
       </c>
       <c r="B13" t="n">
-        <v>78732</v>
+        <v>77650</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2001,20 +1991,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2029,10 +2019,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>756485</v>
+        <v>756378</v>
       </c>
       <c r="R13" t="n">
-        <v>7212023</v>
+        <v>7212050</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2075,21 +2065,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2110,10 +2085,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112171806</v>
+        <v>112171812</v>
       </c>
       <c r="B14" t="n">
-        <v>86357</v>
+        <v>78746</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2122,25 +2097,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4412</v>
+        <v>6463</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2150,10 +2125,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>756477</v>
+        <v>756485</v>
       </c>
       <c r="R14" t="n">
-        <v>7212031</v>
+        <v>7212023</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2196,6 +2171,21 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2216,10 +2206,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112171795</v>
+        <v>112171813</v>
       </c>
       <c r="B15" t="n">
-        <v>77636</v>
+        <v>78713</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2232,21 +2222,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2256,10 +2246,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>756378</v>
+        <v>756485</v>
       </c>
       <c r="R15" t="n">
-        <v>7212050</v>
+        <v>7212023</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2302,6 +2292,21 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2322,10 +2327,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112171785</v>
+        <v>112171801</v>
       </c>
       <c r="B16" t="n">
-        <v>78663</v>
+        <v>78713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2334,25 +2339,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>229748</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2362,10 +2367,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>756412</v>
+        <v>756448</v>
       </c>
       <c r="R16" t="n">
-        <v>7211954</v>
+        <v>7212052</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2398,11 +2403,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>på berg</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2433,10 +2433,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112171792</v>
+        <v>112171798</v>
       </c>
       <c r="B17" t="n">
-        <v>85387</v>
+        <v>78713</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2445,25 +2445,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>249228</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>756395</v>
+        <v>756371</v>
       </c>
       <c r="R17" t="n">
-        <v>7211974</v>
+        <v>7212116</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112171798</v>
+        <v>112171814</v>
       </c>
       <c r="B18" t="n">
-        <v>78699</v>
+        <v>89499</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2555,21 +2555,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>112</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>756371</v>
+        <v>756486</v>
       </c>
       <c r="R18" t="n">
-        <v>7212116</v>
+        <v>7212041</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2625,6 +2625,21 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2645,10 +2660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112171813</v>
+        <v>112171779</v>
       </c>
       <c r="B19" t="n">
-        <v>78699</v>
+        <v>102192</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2657,25 +2672,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>222412</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2685,10 +2700,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>756485</v>
+        <v>756291</v>
       </c>
       <c r="R19" t="n">
-        <v>7212023</v>
+        <v>7211892</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2731,21 +2746,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2766,10 +2766,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112171788</v>
+        <v>112171776</v>
       </c>
       <c r="B20" t="n">
-        <v>78699</v>
+        <v>85448</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2782,21 +2782,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>3739</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2806,10 +2806,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>756401</v>
+        <v>756261</v>
       </c>
       <c r="R20" t="n">
-        <v>7211954</v>
+        <v>7211953</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2852,21 +2852,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2887,10 +2872,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112171787</v>
+        <v>112171792</v>
       </c>
       <c r="B21" t="n">
-        <v>86357</v>
+        <v>85401</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2899,25 +2884,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4412</v>
+        <v>249228</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2927,10 +2912,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>756408</v>
+        <v>756395</v>
       </c>
       <c r="R21" t="n">
-        <v>7211956</v>
+        <v>7211974</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2993,10 +2978,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112171810</v>
+        <v>112171788</v>
       </c>
       <c r="B22" t="n">
-        <v>90466</v>
+        <v>78713</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3005,25 +2990,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3033,10 +3018,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>756486</v>
+        <v>756401</v>
       </c>
       <c r="R22" t="n">
-        <v>7212020</v>
+        <v>7211954</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3079,6 +3064,21 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">

--- a/artfynd/A 3345-2022.xlsx
+++ b/artfynd/A 3345-2022.xlsx
@@ -1550,10 +1550,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112171810</v>
+        <v>112171798</v>
       </c>
       <c r="B9" t="n">
-        <v>90480</v>
+        <v>78713</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1562,25 +1562,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>756486</v>
+        <v>756371</v>
       </c>
       <c r="R9" t="n">
-        <v>7212020</v>
+        <v>7212116</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112171787</v>
+        <v>112171776</v>
       </c>
       <c r="B10" t="n">
-        <v>86371</v>
+        <v>85448</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1672,21 +1672,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4412</v>
+        <v>3739</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>756408</v>
+        <v>756261</v>
       </c>
       <c r="R10" t="n">
-        <v>7211956</v>
+        <v>7211953</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112171806</v>
+        <v>112171779</v>
       </c>
       <c r="B11" t="n">
-        <v>86371</v>
+        <v>102192</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1774,25 +1774,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4412</v>
+        <v>222412</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1802,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>756477</v>
+        <v>756291</v>
       </c>
       <c r="R11" t="n">
-        <v>7212031</v>
+        <v>7211892</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112171795</v>
+        <v>112171792</v>
       </c>
       <c r="B13" t="n">
-        <v>77650</v>
+        <v>85401</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1991,25 +1991,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>249228</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>756378</v>
+        <v>756395</v>
       </c>
       <c r="R13" t="n">
-        <v>7212050</v>
+        <v>7211974</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112171812</v>
+        <v>112171814</v>
       </c>
       <c r="B14" t="n">
-        <v>78746</v>
+        <v>89499</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,25 +2097,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6463</v>
+        <v>112</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>756485</v>
+        <v>756486</v>
       </c>
       <c r="R14" t="n">
-        <v>7212023</v>
+        <v>7212041</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2174,17 +2174,17 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112171813</v>
+        <v>112171812</v>
       </c>
       <c r="B15" t="n">
-        <v>78713</v>
+        <v>78746</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2218,25 +2218,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112171801</v>
+        <v>112171787</v>
       </c>
       <c r="B16" t="n">
-        <v>78713</v>
+        <v>86371</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2343,21 +2343,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>756448</v>
+        <v>756408</v>
       </c>
       <c r="R16" t="n">
-        <v>7212052</v>
+        <v>7211956</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112171798</v>
+        <v>112171806</v>
       </c>
       <c r="B17" t="n">
-        <v>78713</v>
+        <v>86371</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2449,21 +2449,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>756371</v>
+        <v>756477</v>
       </c>
       <c r="R17" t="n">
-        <v>7212116</v>
+        <v>7212031</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112171814</v>
+        <v>112171810</v>
       </c>
       <c r="B18" t="n">
-        <v>89499</v>
+        <v>90480</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2551,25 +2551,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>112</v>
+        <v>4769</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2582,7 +2582,7 @@
         <v>756486</v>
       </c>
       <c r="R18" t="n">
-        <v>7212041</v>
+        <v>7212020</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2625,21 +2625,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2660,10 +2645,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112171779</v>
+        <v>112171801</v>
       </c>
       <c r="B19" t="n">
-        <v>102192</v>
+        <v>78713</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2672,25 +2657,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222412</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2700,10 +2685,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>756291</v>
+        <v>756448</v>
       </c>
       <c r="R19" t="n">
-        <v>7211892</v>
+        <v>7212052</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2766,10 +2751,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112171776</v>
+        <v>112171788</v>
       </c>
       <c r="B20" t="n">
-        <v>85448</v>
+        <v>78713</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2782,21 +2767,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3739</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2806,10 +2791,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>756261</v>
+        <v>756401</v>
       </c>
       <c r="R20" t="n">
-        <v>7211953</v>
+        <v>7211954</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2852,6 +2837,21 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2872,10 +2872,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112171792</v>
+        <v>112171813</v>
       </c>
       <c r="B21" t="n">
-        <v>85401</v>
+        <v>78713</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2884,25 +2884,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>249228</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>756395</v>
+        <v>756485</v>
       </c>
       <c r="R21" t="n">
-        <v>7211974</v>
+        <v>7212023</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2958,6 +2958,21 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -2978,10 +2993,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112171788</v>
+        <v>112171795</v>
       </c>
       <c r="B22" t="n">
-        <v>78713</v>
+        <v>77650</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2994,21 +3009,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3018,10 +3033,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>756401</v>
+        <v>756378</v>
       </c>
       <c r="R22" t="n">
-        <v>7211954</v>
+        <v>7212050</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3064,21 +3079,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">

--- a/artfynd/A 3345-2022.xlsx
+++ b/artfynd/A 3345-2022.xlsx
@@ -1550,7 +1550,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112171798</v>
+        <v>112171813</v>
       </c>
       <c r="B9" t="n">
         <v>78713</v>
@@ -1590,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>756371</v>
+        <v>756485</v>
       </c>
       <c r="R9" t="n">
-        <v>7212116</v>
+        <v>7212023</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1636,6 +1636,21 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1762,10 +1777,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112171779</v>
+        <v>112171810</v>
       </c>
       <c r="B11" t="n">
-        <v>102192</v>
+        <v>90480</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1778,21 +1793,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1802,10 +1817,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>756291</v>
+        <v>756486</v>
       </c>
       <c r="R11" t="n">
-        <v>7211892</v>
+        <v>7212020</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1868,10 +1883,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112171785</v>
+        <v>112171812</v>
       </c>
       <c r="B12" t="n">
-        <v>78677</v>
+        <v>78746</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1884,21 +1899,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>229748</v>
+        <v>6463</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1908,10 +1923,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>756412</v>
+        <v>756485</v>
       </c>
       <c r="R12" t="n">
-        <v>7211954</v>
+        <v>7212023</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1946,11 +1961,6 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>på berg</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1959,6 +1969,21 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2085,10 +2110,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112171814</v>
+        <v>112171798</v>
       </c>
       <c r="B14" t="n">
-        <v>89499</v>
+        <v>78713</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2101,21 +2126,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>112</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2125,10 +2150,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>756486</v>
+        <v>756371</v>
       </c>
       <c r="R14" t="n">
-        <v>7212041</v>
+        <v>7212116</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2171,21 +2196,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2206,10 +2216,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112171812</v>
+        <v>112171779</v>
       </c>
       <c r="B15" t="n">
-        <v>78746</v>
+        <v>102192</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2222,21 +2232,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6463</v>
+        <v>222412</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2246,10 +2256,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>756485</v>
+        <v>756291</v>
       </c>
       <c r="R15" t="n">
-        <v>7212023</v>
+        <v>7211892</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2292,21 +2302,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2539,10 +2534,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112171810</v>
+        <v>112171801</v>
       </c>
       <c r="B18" t="n">
-        <v>90480</v>
+        <v>78713</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2551,25 +2546,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2579,10 +2574,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>756486</v>
+        <v>756448</v>
       </c>
       <c r="R18" t="n">
-        <v>7212020</v>
+        <v>7212052</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2645,7 +2640,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112171801</v>
+        <v>112171788</v>
       </c>
       <c r="B19" t="n">
         <v>78713</v>
@@ -2685,10 +2680,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>756448</v>
+        <v>756401</v>
       </c>
       <c r="R19" t="n">
-        <v>7212052</v>
+        <v>7211954</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2731,6 +2726,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2751,10 +2761,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112171788</v>
+        <v>112171785</v>
       </c>
       <c r="B20" t="n">
-        <v>78713</v>
+        <v>78677</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2763,25 +2773,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>229748</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2791,7 +2801,7 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>756401</v>
+        <v>756412</v>
       </c>
       <c r="R20" t="n">
         <v>7211954</v>
@@ -2829,6 +2839,11 @@
           <t>2023-09-11</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>på berg</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -2837,21 +2852,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2872,10 +2872,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112171813</v>
+        <v>112171795</v>
       </c>
       <c r="B21" t="n">
-        <v>78713</v>
+        <v>77650</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2888,21 +2888,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>756485</v>
+        <v>756378</v>
       </c>
       <c r="R21" t="n">
-        <v>7212023</v>
+        <v>7212050</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2958,21 +2958,6 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -2993,10 +2978,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112171795</v>
+        <v>112171814</v>
       </c>
       <c r="B22" t="n">
-        <v>77650</v>
+        <v>89499</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3009,21 +2994,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>112</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3033,10 +3018,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>756378</v>
+        <v>756486</v>
       </c>
       <c r="R22" t="n">
-        <v>7212050</v>
+        <v>7212041</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3079,6 +3064,21 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
